--- a/house_price/Feature_Importance.xlsx
+++ b/house_price/Feature_Importance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evios/Work/ds_ml/data/house_pricing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evios/Work/ds_ml/repos/repo_learning/house_price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EEFEE-3A0D-5143-AE35-2C12B6453443}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2AF54A-81DD-1E41-A33B-7CFD76EFE48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{579829F3-4B0B-C144-A9D0-7C2A0EA64015}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>feature</t>
   </si>
@@ -474,12 +474,81 @@
   <si>
     <t>cat type</t>
   </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Zoning</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>2nd floor</t>
+  </si>
+  <si>
+    <t>Masonry</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>Porch</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>Central Air</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +581,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -561,6 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BBFCB2-D20F-BA43-80DE-8759B63AA4B8}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,7 +968,7 @@
     <col min="12" max="12" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +990,17 @@
       <c r="N1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -924,8 +1010,11 @@
       <c r="C2" s="2">
         <v>0.393372</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -945,8 +1034,11 @@
         <f>B3</f>
         <v>GrLivArea</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>28</v>
       </c>
@@ -966,8 +1058,14 @@
         <f>B4</f>
         <v>YearBuilt</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -995,8 +1093,14 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -1016,8 +1120,14 @@
         <f t="shared" ref="K6:K11" si="0">B6</f>
         <v>GarageCars</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1037,8 +1147,14 @@
         <f t="shared" si="0"/>
         <v>GarageArea</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -1058,8 +1174,14 @@
         <f t="shared" si="0"/>
         <v>TotalBsmtSF</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1079,8 +1201,11 @@
         <f t="shared" si="0"/>
         <v>1stFlrSF</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>29</v>
       </c>
@@ -1100,8 +1225,14 @@
         <f t="shared" si="0"/>
         <v>YearRemodAdd</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -1121,8 +1252,11 @@
         <f t="shared" si="0"/>
         <v>LotArea</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P11" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1138,8 +1272,14 @@
       <c r="F12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>63</v>
       </c>
@@ -1167,8 +1307,14 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1184,8 +1330,11 @@
       <c r="F14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>69</v>
       </c>
@@ -1213,8 +1362,11 @@
       <c r="N15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1230,8 +1382,14 @@
       <c r="F16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>68</v>
       </c>
@@ -1241,16 +1399,16 @@
       <c r="C17" s="2">
         <v>7.9340000000000001E-3</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="7" t="s">
         <v>76</v>
       </c>
@@ -1258,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1274,8 +1432,14 @@
       <c r="F18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="187" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>140</v>
       </c>
@@ -1300,8 +1464,14 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>204</v>
       </c>
@@ -1329,8 +1499,14 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -1350,8 +1526,11 @@
         <f>B21</f>
         <v>BsmtUnfSF</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1372,7 +1551,7 @@
         <v>LotFrontage</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1392,8 +1571,14 @@
         <f>B23</f>
         <v>2ndFlrSF</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -1413,8 +1598,14 @@
         <f>B24</f>
         <v>KitchenAbvGr</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -1424,24 +1615,30 @@
       <c r="C25" s="2">
         <v>3.0560000000000001E-3</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1461,8 +1658,14 @@
         <f>B26</f>
         <v>TotRmsAbvGrd</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1482,8 +1685,14 @@
         <f>B27</f>
         <v>OpenPorchSF</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>237</v>
       </c>
@@ -1511,8 +1720,14 @@
       <c r="N28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>203</v>
       </c>
@@ -1522,24 +1737,30 @@
       <c r="C29" s="2">
         <v>2.6220000000000002E-3</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="7" t="s">
         <v>83</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>65</v>
       </c>
@@ -1549,24 +1770,30 @@
       <c r="C30" s="2">
         <v>2.594E-3</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>161</v>
       </c>
@@ -1591,8 +1818,14 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>171</v>
       </c>
@@ -1617,8 +1850,14 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>241</v>
       </c>
@@ -1628,24 +1867,30 @@
       <c r="C33" s="2">
         <v>2.1749999999999999E-3</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="7" t="s">
         <v>95</v>
       </c>
       <c r="N33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>201</v>
       </c>
@@ -1655,24 +1900,30 @@
       <c r="C34" s="2">
         <v>2.1229999999999999E-3</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="7" t="s">
         <v>83</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -1689,7 +1940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>303</v>
       </c>
@@ -1700,7 +1951,7 @@
         <v>2.0379999999999999E-3</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>104</v>
@@ -1714,11 +1965,14 @@
       <c r="M36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>300</v>
       </c>
@@ -1728,24 +1982,27 @@
       <c r="C37" s="2">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1761,8 +2018,14 @@
       <c r="F38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>301</v>
       </c>
@@ -1772,24 +2035,27 @@
       <c r="C39" s="2">
         <v>1.897E-3</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -1805,8 +2071,14 @@
       <c r="F40" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>304</v>
       </c>
@@ -1816,24 +2088,27 @@
       <c r="C41" s="2">
         <v>1.768E-3</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>222</v>
       </c>
@@ -1862,7 +2137,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>240</v>
       </c>
@@ -1872,24 +2147,30 @@
       <c r="C43" s="2">
         <v>1.4729999999999999E-3</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="7" t="s">
         <v>95</v>
       </c>
       <c r="N43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>99</v>
       </c>
@@ -1899,24 +2180,30 @@
       <c r="C44" s="2">
         <v>1.464E-3</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>97</v>
       </c>
@@ -1926,24 +2213,30 @@
       <c r="C45" s="2">
         <v>1.377E-3</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="238" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>330</v>
       </c>
@@ -1969,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="136" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>51</v>
       </c>
@@ -1994,8 +2287,14 @@
       <c r="N47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>165</v>
       </c>
@@ -2020,8 +2319,11 @@
       <c r="N48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>98</v>
       </c>
@@ -2031,24 +2333,30 @@
       <c r="C49" s="2">
         <v>1.186E-3</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -2067,8 +2375,17 @@
       <c r="N50" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>128</v>
+      </c>
+      <c r="R50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>202</v>
       </c>
@@ -2078,25 +2395,35 @@
       <c r="C51" s="2">
         <v>1.1709999999999999E-3</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="7" t="s">
         <v>83</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
+      <c r="P51" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="E39:L39"/>
     <mergeCell ref="E37:L37"/>
     <mergeCell ref="E44:L44"/>
     <mergeCell ref="E49:L49"/>
@@ -2107,10 +2434,6 @@
     <mergeCell ref="E33:L33"/>
     <mergeCell ref="E30:L30"/>
     <mergeCell ref="E43:L43"/>
-    <mergeCell ref="E51:L51"/>
-    <mergeCell ref="E45:L45"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="E39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
